--- a/산출물/설계/AND-04.DB설계산출물/20200813_개발자 등록_AND-04_테이블정의서_v0.2.xlsx
+++ b/산출물/설계/AND-04.DB설계산출물/20200813_개발자 등록_AND-04_테이블정의서_v0.2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="111">
   <si>
     <t>프로젝트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,10 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소속사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,10 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T, F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프리랜서, 외주업체의 개발자 정보를 관리한다. 계약 해지, 퇴사자의 경우 해당 정보를 삭제하지 않고 사용 여부로 관리한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,26 +293,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>속성명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DEVP_TLNO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DEVP_BLCO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -345,10 +321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구분 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DEVP_RANK_CD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,10 +393,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>재직 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EMP_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -442,6 +410,66 @@
   </si>
   <si>
     <t>REG_EMP_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVP_TEL_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약 구분 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y, N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1305,7 +1333,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" s="11"/>
     </row>
@@ -1543,10 +1571,10 @@
         <v>17</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>64</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>42</v>
@@ -1644,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1680,13 +1708,13 @@
         <v>13</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>19</v>
@@ -1740,7 +1768,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
@@ -1838,7 +1866,7 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="42"/>
       <c r="B13" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -1879,9 +1907,9 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>35</v>
@@ -1893,57 +1921,53 @@
         <v>37</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="11">
-        <v>30</v>
+        <v>96</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J18" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>47</v>
       </c>
@@ -1951,332 +1975,293 @@
         <v>47</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="11">
-        <v>20</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="24">
-        <v>10</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="11"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="24">
-        <v>10</v>
-      </c>
-      <c r="H21" s="11"/>
+        <v>97</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="11" t="s">
+      <c r="J21" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>60</v>
-      </c>
       <c r="C22" s="24" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="24">
-        <v>20</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="11"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="24">
-        <v>10</v>
-      </c>
-      <c r="H23" s="11"/>
+        <v>97</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="11"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="24">
-        <v>30</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="24"/>
-      <c r="K24" s="11"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I24" s="24"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" s="24">
-        <v>20</v>
-      </c>
-      <c r="H25" s="11"/>
+        <v>104</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="11"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="24">
-        <v>5</v>
-      </c>
-      <c r="H26" s="11"/>
+        <v>107</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J26" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="24">
-        <v>30</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G27" s="24"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="11"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>100</v>
-      </c>
       <c r="D28" s="24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="24">
-        <v>20</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G28" s="24"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="11"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>102</v>
-      </c>
       <c r="D29" s="24" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="24">
-        <v>30</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G29" s="24"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="11"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E30" s="24"/>
       <c r="F30" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="24">
-        <v>20</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G30" s="24"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="11"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="24">
-        <v>500</v>
-      </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J31" s="24"/>
-      <c r="K31" s="11"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/산출물/설계/AND-04.DB설계산출물/20200813_개발자 등록_AND-04_테이블정의서_v0.2.xlsx
+++ b/산출물/설계/AND-04.DB설계산출물/20200813_개발자 등록_AND-04_테이블정의서_v0.2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="113">
   <si>
     <t>프로젝트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -471,6 +471,13 @@
   <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP_DEPT_CD</t>
   </si>
 </sst>
 </file>
@@ -1672,10 +1679,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="F20" activeCellId="1" sqref="F19 F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1990,205 +1997,205 @@
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="24"/>
+      <c r="A20" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="11"/>
       <c r="F20" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G20" s="11"/>
-      <c r="H20" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="24"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="11" t="s">
         <v>97</v>
       </c>
       <c r="G21" s="11"/>
-      <c r="H21" s="24"/>
+      <c r="H21" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="I21" s="24"/>
-      <c r="J21" s="11" t="s">
-        <v>56</v>
-      </c>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="24"/>
+        <v>97</v>
+      </c>
+      <c r="G22" s="11"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="11"/>
+      <c r="J22" s="11" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="11"/>
+        <v>98</v>
+      </c>
+      <c r="G23" s="24"/>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G24" s="11"/>
-      <c r="H24" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="H24" s="24"/>
       <c r="I24" s="24"/>
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G25" s="11"/>
-      <c r="H25" s="24"/>
+      <c r="H25" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="I25" s="24"/>
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="11" t="s">
-        <v>106</v>
-      </c>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" s="24"/>
+        <v>107</v>
+      </c>
+      <c r="G27" s="11"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="11"/>
+      <c r="J27" s="11" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
@@ -2197,20 +2204,20 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
@@ -2219,20 +2226,20 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E30" s="24"/>
       <c r="F30" s="11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
@@ -2241,27 +2248,49 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11" t="s">
-        <v>39</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
       <c r="I31" s="24"/>
       <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="24"/>
+      <c r="J32" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/산출물/설계/AND-04.DB설계산출물/20200813_개발자 등록_AND-04_테이블정의서_v0.2.xlsx
+++ b/산출물/설계/AND-04.DB설계산출물/20200813_개발자 등록_AND-04_테이블정의서_v0.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\infogen_ims\산출물\설계\AND-04.DB설계산출물\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace2\infogen_ims\산출물\설계\AND-04.DB설계산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1682,7 +1682,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" activeCellId="1" sqref="F19 F20"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2158,44 +2158,42 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G27" s="11"/>
+        <v>108</v>
+      </c>
+      <c r="G27" s="24"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="11" t="s">
-        <v>106</v>
-      </c>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
@@ -2204,20 +2202,20 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
@@ -2226,20 +2224,20 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E30" s="24"/>
       <c r="F30" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
@@ -2248,49 +2246,51 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+        <v>109</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="I31" s="24"/>
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G32" s="11"/>
-      <c r="H32" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="H32" s="24"/>
       <c r="I32" s="24"/>
-      <c r="J32" s="11"/>
+      <c r="J32" s="11" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
